--- a/Data/EC/NIT-9000342670.xlsx
+++ b/Data/EC/NIT-9000342670.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39F2AAE-74E9-4F9A-AF70-FE82C901C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E78F9D8-898E-41C5-8560-6CF17618BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{64F3D721-68E6-4CC5-BEA8-551D4A9394F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4844E5B4-9476-4D77-B973-5B9C75E79D23}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,40 +65,40 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047366865</t>
+  </si>
+  <si>
+    <t>FRAN ISAAC GUZMAN NAARRO</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>8364747</t>
+  </si>
+  <si>
+    <t>RAFAEL ORLANDO CHAVES REYES</t>
+  </si>
+  <si>
+    <t>1143329052</t>
+  </si>
+  <si>
+    <t>EUFEMIA GUERRERO AREVALO</t>
+  </si>
+  <si>
     <t>45506707</t>
   </si>
   <si>
     <t>DORMA BEATRIZ VAQUERO GUZMAN</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1044916860</t>
   </si>
   <si>
     <t>LUIS ENRIQUE PAJARO PACHECO</t>
-  </si>
-  <si>
-    <t>1047366865</t>
-  </si>
-  <si>
-    <t>FRAN ISAAC GUZMAN NAARRO</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>8364747</t>
-  </si>
-  <si>
-    <t>RAFAEL ORLANDO CHAVES REYES</t>
-  </si>
-  <si>
-    <t>1143329052</t>
-  </si>
-  <si>
-    <t>EUFEMIA GUERRERO AREVALO</t>
   </si>
   <si>
     <t>1047482042</t>
@@ -209,22 +209,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -424,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10160898-4D65-1AE8-0812-C1C81963D8EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB2E4B4-13EF-FFC2-6E91-6023B1AC0173}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A536C9F-3CDA-4723-A57F-5E5392972649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149AC65-F668-45A1-A279-78777FCCCDBD}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1053,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>616000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1076,10 +1076,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>644350</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>24640</v>
@@ -1113,19 +1113,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>644350</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1142,13 +1142,13 @@
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>24640</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>616000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1165,7 +1165,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1188,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="24">
         <v>56940</v>

--- a/Data/EC/NIT-9000342670.xlsx
+++ b/Data/EC/NIT-9000342670.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E78F9D8-898E-41C5-8560-6CF17618BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE10574-939D-4039-B3D7-765B2E3BD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4844E5B4-9476-4D77-B973-5B9C75E79D23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AF55138B-68FF-46D7-920C-0604D19AF9DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>DORMA BEATRIZ VAQUERO GUZMAN</t>
   </si>
   <si>
-    <t>2508</t>
+    <t>2509</t>
   </si>
   <si>
     <t>1044916860</t>
@@ -209,22 +209,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,29 +418,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,19 +459,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB2E4B4-13EF-FFC2-6E91-6023B1AC0173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BE424B-56E3-4929-5A87-44FFCF9C7733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9149AC65-F668-45A1-A279-78777FCCCDBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837EB8D6-B428-4DCC-A51A-EFC1750CD7C1}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -898,49 +904,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -948,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -964,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9000342670</v>
       </c>
@@ -980,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>302814</v>
       </c>
@@ -1049,18 +1055,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>24640</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>616000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1072,18 +1078,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>25774</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>644350</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1095,18 +1101,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>24640</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>616000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1118,18 +1124,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>56940</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1423500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1141,18 +1147,18 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>56940</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1423500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1164,47 +1170,47 @@
       <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>56940</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1423500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="26">
         <v>56940</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="26">
         <v>1423500</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="34"/>
       <c r="H27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1212,10 +1218,10 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="34"/>
       <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
